--- a/rdm/daily/excel/员工信息.xlsx
+++ b/rdm/daily/excel/员工信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dong xiao bin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\daily\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F3893-7DA1-445B-8025-B0EFA6876B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FFFE59-409C-48EE-A548-E4FA80812289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>工号</t>
   </si>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>李远明</t>
+  </si>
+  <si>
+    <t>刘丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -760,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,6 +1228,14 @@
         <v>110</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>2065</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
